--- a/projects/virginia/sensitivity_all/user_inputs.xlsx
+++ b/projects/virginia/sensitivity_all/user_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benne\PycharmProjects\caes\projects\virginia\sensitivity_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8B63BB-66E2-448A-8B00-A150F1D76583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0023474-35DF-48C9-B36D-5EF53B2C048B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="71">
   <si>
     <t>debug</t>
   </si>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1519,7 +1519,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>28</v>
@@ -1733,8 +1733,8 @@
       <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>28</v>
+      <c r="C41" s="10">
+        <v>3</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>33</v>
@@ -1748,8 +1748,8 @@
       <c r="B42" s="8">
         <v>1</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>28</v>
+      <c r="C42" s="10">
+        <v>2.5</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>33</v>
@@ -1763,8 +1763,8 @@
       <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>28</v>
+      <c r="C43" s="10">
+        <v>2</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>33</v>
@@ -1812,8 +1812,8 @@
       <c r="B46" s="8">
         <v>1</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>28</v>
+      <c r="C46" s="10">
+        <v>2</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>33</v>
@@ -1827,8 +1827,8 @@
       <c r="B47" s="8">
         <v>1</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>28</v>
+      <c r="C47" s="10">
+        <v>2.5</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>33</v>
@@ -1842,8 +1842,8 @@
       <c r="B48" s="8">
         <v>1</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>28</v>
+      <c r="C48" s="10">
+        <v>3</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>33</v>
